--- a/GB Accounts 2022-23/GB Accounts Company 2024-01-31 (Jan24) Excel 2007/expensesform.xlsx
+++ b/GB Accounts 2022-23/GB Accounts Company 2024-01-31 (Jan24) Excel 2007/expensesform.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Downloads\GB Accounts Company 2023-03-31 (Mar23) Excel 2007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Downloads\Wages Interface and Linking to be complete on all\GB Accounts Company 2024-01-31 (Jan24) Excel 2007\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0E63C0-8268-4827-89AF-4F3937D69B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD5C6C1-323E-4A88-91E4-5E65147A2B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="51">
-        <v>44652</v>
+        <v>44958</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -995,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="51">
-        <v>44681</v>
+        <v>44985</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -1873,7 +1873,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44681</v>
+        <v>44985</v>
       </c>
       <c r="B44" s="45" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 09'!G6),MONTH('Month 09'!G6)+1,1)</f>
-        <v>44927</v>
+        <v>45231</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44957</v>
+        <v>45260</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -3035,7 +3035,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44957</v>
+        <v>45260</v>
       </c>
       <c r="B44" s="45" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 10'!G6),MONTH('Month 10'!G6)+1,1)</f>
-        <v>44958</v>
+        <v>45261</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44985</v>
+        <v>45291</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -4194,7 +4194,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44985</v>
+        <v>45291</v>
       </c>
       <c r="B44" s="45" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 11'!G6),MONTH('Month 11'!G6)+1,1)</f>
-        <v>44986</v>
+        <v>45292</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45016</v>
+        <v>45322</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -5353,7 +5353,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45016</v>
+        <v>45322</v>
       </c>
       <c r="B44" s="45" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 01'!G6),MONTH('Month 01'!G6)+1,1)</f>
-        <v>44682</v>
+        <v>44986</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44712</v>
+        <v>45016</v>
       </c>
       <c r="H7" s="51"/>
       <c r="Q7" s="38"/>
@@ -6516,7 +6516,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44712</v>
+        <v>45016</v>
       </c>
       <c r="B44" s="45" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 02'!G6),MONTH('Month 02'!G6)+1,DAY('Month 02'!G6))</f>
-        <v>44713</v>
+        <v>45017</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44742</v>
+        <v>45046</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -7677,7 +7677,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44742</v>
+        <v>45046</v>
       </c>
       <c r="B44" s="45" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 03'!G6),MONTH('Month 03'!G6)+1,1)</f>
-        <v>44743</v>
+        <v>45047</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44773</v>
+        <v>45077</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -8837,7 +8837,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44773</v>
+        <v>45077</v>
       </c>
       <c r="B44" s="45" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 04'!G6),MONTH('Month 04'!G6)+1,1)</f>
-        <v>44774</v>
+        <v>45078</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44804</v>
+        <v>45107</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -9998,7 +9998,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44804</v>
+        <v>45107</v>
       </c>
       <c r="B44" s="45" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
@@ -10260,7 +10260,7 @@
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 05'!G6),MONTH('Month 05'!G6)+1,1)</f>
-        <v>44805</v>
+        <v>45108</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44834</v>
+        <v>45138</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -11158,7 +11158,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44834</v>
+        <v>45138</v>
       </c>
       <c r="B44" s="45" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
@@ -11420,7 +11420,7 @@
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 06'!G6),MONTH('Month 06'!G6)+1,1)</f>
-        <v>44835</v>
+        <v>45139</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44865</v>
+        <v>45169</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -12318,7 +12318,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44865</v>
+        <v>45169</v>
       </c>
       <c r="B44" s="45" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
@@ -12580,7 +12580,7 @@
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 07'!G6),MONTH('Month 07'!G6)+1,1)</f>
-        <v>44866</v>
+        <v>45170</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44895</v>
+        <v>45199</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -13478,7 +13478,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44895</v>
+        <v>45199</v>
       </c>
       <c r="B44" s="45" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 08'!G6),MONTH('Month 08'!G6)+1,1)</f>
-        <v>44896</v>
+        <v>45200</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -13761,7 +13761,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44926</v>
+        <v>45230</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -14638,7 +14638,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44926</v>
+        <v>45230</v>
       </c>
       <c r="B44" s="45" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
